--- a/Uploads/Expertise France IPC uploads/formations-expertise-france.xlsx
+++ b/Uploads/Expertise France IPC uploads/formations-expertise-france.xlsx
@@ -6456,6 +6456,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6464,14 +6472,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6783,36 +6783,36 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4:H3998"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" style="26" customWidth="1"/>
-    <col min="3" max="5" width="18.7109375" style="26" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="26" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="26" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="27" customWidth="1"/>
-    <col min="9" max="11" width="12.7109375" style="26" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="26"/>
+    <col min="1" max="2" width="15.7109375" style="23" customWidth="1"/>
+    <col min="3" max="5" width="18.7109375" style="23" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="23" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="23" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="24" customWidth="1"/>
+    <col min="9" max="11" width="12.7109375" style="23" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="22" customFormat="1" ht="21" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>2063</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27" t="s">
         <v>2062</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" s="22" customFormat="1" ht="65.25" customHeight="1">
       <c r="A2" s="17" t="s">
@@ -6885,71 +6885,71 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="60">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="23" t="s">
         <v>1592</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="24">
         <v>42107</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="23">
         <v>11</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="23" t="s">
         <v>1601</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="60">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="23" t="s">
         <v>1592</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="24">
         <v>42121</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="23">
         <v>11</v>
       </c>
-      <c r="J5" s="26" t="s">
+      <c r="J5" s="23" t="s">
         <v>1601</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="60">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="23" t="s">
         <v>1592</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="24">
         <v>42135</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="23">
         <v>11</v>
       </c>
-      <c r="J6" s="26" t="s">
+      <c r="J6" s="23" t="s">
         <v>1601</v>
       </c>
     </row>
@@ -6987,7 +6987,7 @@
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Date inacceptable" error="Spécifiez s'il vous plaît une date ultérieure au 1er Janvier 2015." promptTitle="Date" prompt="La date à laquelle la formation a été complétée." sqref="H4:H3998">
-      <formula1>42005</formula1>
+      <formula1>41640</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Région" prompt="Dans le menu, choisissez la région où se situe l'établissement (ou d'où viennent les personnes indépendentes)." sqref="A4:A3998">
       <formula1>Regions</formula1>
